--- a/pred_ohlcv/54_21/2020-01-13 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 CON ohlcv.xlsx
@@ -5072,7 +5072,7 @@
         <v>25418706.26807134</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25419462.66797134</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>25475382.53217134</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25538096.30627134</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>25494542.80127134</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>25494941.80127134</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>25367134.97627134</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>25367274.97627134</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>25331230.69627134</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>25271275.96457134</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>25195683.09957134</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>25264767.96957134</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>25342643.29457134</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>25297728.15967134</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>25352435.19467134</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>25412508.99467134</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>25470591.02237134</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25063039.79897134</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>25063179.79897134</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25101005.92397134</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>25053447.49897134</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>25120899.45397134</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>25112122.05717134</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>25048043.33717134</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>25126975.42237134</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>25053885.63237134</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>25007969.05237134</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>24949897.71237134</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>24917858.35237134</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>24886651.22237134</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>24527731.07897134</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>25103096.47655862</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>25035513.45155862</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>25086576.18155862</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>25046526.98155862</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>25279863.54975862</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>25249326.03475862</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>25616449.98961565</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>25783828.72801565</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>25627710.64801564</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>25661752.46801564</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>25593668.82801564</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>25558625.77801564</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>25513602.46701564</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>25513602.46701564</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>25587693.48701564</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>25513101.85201564</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>25466544.65701564</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>25466544.65701564</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>25542838.13701564</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>25532325.22201564</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>25643323.37301564</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>25639770.28631564</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>25699743.47131564</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>25528367.36901564</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>25457363.67131564</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>25575387.02271564</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>27118839.24390623</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>27049204.99406127</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>26611897.43466127</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>26676197.47026127</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>26635603.67816127</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>26685665.17816127</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>26638607.36816127</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>26521931.27816127</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26607035.82816127</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>26607174.82816127</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>26548313.26726127</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>26662367.04986127</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>26592079.64856128</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>26540516.30356128</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>26402868.35806128</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>26473089.68586127</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>26384397.94206128</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>26311308.15206128</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>26375253.83756128</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>26421310.41756127</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>26424639.38356127</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>26475702.11356127</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>26435652.91356127</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>26488361.30106127</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>26421779.50606127</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>26219779.50606127</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>26283858.22606127</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>26318400.66106126</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>26281355.15106126</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>26356187.40006126</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>26428275.96006126</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>26380016.92006126</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>26380016.92006126</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>26460115.32006126</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>26351982.48006126</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>26262411.75506126</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>26282297.40226126</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>26281432.33926126</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>26338534.17056126</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>26285969.59556126</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>26348309.70780401</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>26314267.88780401</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>26464710.70736126</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>23745225.40316126</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>23819316.42316126</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>17719403.26561852</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>17623285.18561852</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>17584338.06061852</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>19504131.82691849</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>19502223.14161849</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>20742534.52051849</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>20783325.28101849</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>19662231.15681849</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>19817036.61221849</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>19305061.41271849</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>19261507.90771849</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>19332543.5033185</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>19282700.4612185</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>19435677.9995185</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>19429203.1308185</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>19507799.6858185</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>19601202.4713185</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 CON ohlcv.xlsx
@@ -5072,7 +5072,7 @@
         <v>25418706.26807134</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25419462.66797134</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>25475382.53217134</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25538096.30627134</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>25494542.80127134</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>25494941.80127134</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>25367134.97627134</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>25367274.97627134</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>25331230.69627134</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>25271275.96457134</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>25195683.09957134</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>25264767.96957134</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>25342643.29457134</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>25297728.15967134</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>25352435.19467134</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>25412508.99467134</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>25470591.02237134</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25063039.79897134</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>25063179.79897134</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25101005.92397134</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>25053447.49897134</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>25120899.45397134</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>25112122.05717134</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>25048043.33717134</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>25126975.42237134</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>25053885.63237134</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>25007969.05237134</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>24949897.71237134</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>24917858.35237134</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>24886651.22237134</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>24527731.07897134</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>25103096.47655862</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>25035513.45155862</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>25086576.18155862</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>25046526.98155862</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>25279863.54975862</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>25249326.03475862</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>25616449.98961565</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>25783828.72801565</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>25627710.64801564</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>25661752.46801564</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>25532325.22201564</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>25860024.03751564</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>25643323.37301564</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>25639770.28631564</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>25699743.47131564</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>25528367.36901564</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>25601156.54401564</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>25457363.67131564</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>25514161.99271564</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>25575237.02271564</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>25575387.02271564</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>25497291.08271564</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>25426475.88751564</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>26875558.82625716</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>27118839.24390623</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>27049204.99406127</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>26611897.43466127</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>26676197.47026127</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>26635603.67816127</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>26685665.17816127</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>26638607.36816127</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>26521931.27816127</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26607035.82816127</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>26607174.82816127</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>26548313.26726127</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>26662367.04986127</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>26592079.64856128</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>26540516.30356128</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>26402868.35806128</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>26473089.68586127</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>26384397.94206128</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>26311308.15206128</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>26375253.83756128</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>26421310.41756127</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>26424639.38356127</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>26475702.11356127</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>26435652.91356127</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>26488361.30106127</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>26421779.50606127</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>26219779.50606127</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>26283858.22606127</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>26318400.66106126</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>26281355.15106126</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>26356187.40006126</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>26428275.96006126</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>26380016.92006126</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>26380016.92006126</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>26460115.32006126</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>26351982.48006126</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>26262411.75506126</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>26338534.17056126</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>26348309.70780401</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>26314267.88780401</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>26464710.70736126</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>23745225.40316126</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>23819316.42316126</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>17719403.26561852</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>17623285.18561852</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>17584338.06061852</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>20798969.15381849</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>20858969.15381849</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>20858969.15381849</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>19499088.19211849</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>19502223.14161849</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>19662231.15681849</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>19817036.61221849</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>19863613.21721849</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>19807544.33721849</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>19756982.22221849</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>19825065.8622185</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>19888143.35221849</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>19953723.9172185</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>19953723.9172185</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>19904163.03221849</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>19946214.69221849</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>19869620.59721849</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>19939206.08221849</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>20021431.09521849</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>19971369.59521849</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>20009416.33521849</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>19939330.23521849</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>20018928.02021849</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>19957352.37521849</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>20036449.54521849</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>20076006.22661849</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>20004918.8966185</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>19988899.2166185</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>19917311.2716185</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>19959863.5466185</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>19268132.04571849</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>19846698.6632185</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>19891754.0132185</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>19850202.9682185</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>19725413.0941185</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>19787489.3541185</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>19788043.8451185</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>19685918.3851185</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>19685918.3851185</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>19768868.0141185</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>19607879.8512185</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>19756562.5062185</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>19710005.3112185</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>19572836.8012185</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>19604375.5462185</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>19596365.7062185</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>19531786.3712185</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>19634803.1382185</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
